--- a/ค่าอุบัตืเหตุ.xlsx
+++ b/ค่าอุบัตืเหตุ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\from d ex\projectpsit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCEB1600-9A6F-4B3F-9D21-EDC83FD92BCF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4605F8-FDE4-47EA-BEC6-9B7677E04BC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6915" xr2:uid="{F12A0800-B265-4627-8BC1-2DADD99050C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" xr2:uid="{F12A0800-B265-4627-8BC1-2DADD99050C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,17 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ปี 2017</t>
   </si>
   <si>
-    <t>ชาย</t>
-  </si>
-  <si>
-    <t>หญิง</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -87,45 +81,27 @@
     <t>ศ.</t>
   </si>
   <si>
-    <t>เพศ</t>
-  </si>
-  <si>
-    <t>ช่วงอายุ(ปี)</t>
-  </si>
-  <si>
     <t>ปี 2018</t>
   </si>
   <si>
     <t>ส.</t>
   </si>
   <si>
-    <t>0-14</t>
-  </si>
-  <si>
-    <t>15-24</t>
-  </si>
-  <si>
-    <t>25-34</t>
-  </si>
-  <si>
-    <t>35-50</t>
-  </si>
-  <si>
-    <t>51-64</t>
-  </si>
-  <si>
-    <t>65 ปีขึ้นไป</t>
+    <t>ปี 2015</t>
+  </si>
+  <si>
+    <t>ปี 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -159,7 +135,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,277 +447,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C416895-C489-4F26-8471-16C9944B9B94}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>79.19</v>
-      </c>
-      <c r="C3">
-        <v>78.66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>8.56</v>
+      </c>
+      <c r="E3">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>20.81</v>
-      </c>
-      <c r="C4">
-        <v>21.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>9.56</v>
+      </c>
+      <c r="E4">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>15.44</v>
+      </c>
+      <c r="E5">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>8.56</v>
-      </c>
-      <c r="C6">
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>15.77</v>
+      </c>
+      <c r="E6">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>9.56</v>
-      </c>
-      <c r="C7">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>21.14</v>
+      </c>
+      <c r="E7">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>15.44</v>
-      </c>
-      <c r="C8">
-        <v>11.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>29.53</v>
+      </c>
+      <c r="E8">
+        <v>39.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>15.77</v>
-      </c>
-      <c r="C9">
-        <v>15.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>21.14</v>
-      </c>
-      <c r="C10">
-        <v>16.98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>16.61</v>
+      </c>
+      <c r="E10">
+        <v>18.350000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>29.53</v>
-      </c>
-      <c r="C11">
-        <v>39.79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="E11">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>10.91</v>
+      </c>
+      <c r="E12">
+        <v>14.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="E13">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>16.61</v>
-      </c>
-      <c r="C13">
+      <c r="D14">
+        <v>11.58</v>
+      </c>
+      <c r="E14">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>17.62</v>
+      </c>
+      <c r="E15">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>18.12</v>
+      </c>
+      <c r="E16">
         <v>18.350000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>16.440000000000001</v>
-      </c>
-      <c r="C14">
-        <v>17.32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>10.91</v>
-      </c>
-      <c r="C15">
-        <v>14.07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="C16">
-        <v>11.49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>11.58</v>
-      </c>
-      <c r="C17">
-        <v>11.66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>17.62</v>
-      </c>
-      <c r="C18">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>18.12</v>
-      </c>
-      <c r="C19">
-        <v>18.350000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>46.81</v>
-      </c>
-      <c r="C21">
-        <v>50.26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>15.6</v>
-      </c>
-      <c r="C22">
-        <v>13.38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>11.58</v>
-      </c>
-      <c r="C23">
-        <v>11.66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>13.76</v>
-      </c>
-      <c r="C24">
-        <v>13.21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>6.88</v>
-      </c>
-      <c r="C25">
-        <v>7.38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>5.37</v>
-      </c>
-      <c r="C26">
-        <v>4.12</v>
       </c>
     </row>
   </sheetData>

--- a/ค่าอุบัตืเหตุ.xlsx
+++ b/ค่าอุบัตืเหตุ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\from d ex\projectpsit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4605F8-FDE4-47EA-BEC6-9B7677E04BC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE96317-8507-44EC-B86A-91F1EFB61EF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" xr2:uid="{F12A0800-B265-4627-8BC1-2DADD99050C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6915" xr2:uid="{F12A0800-B265-4627-8BC1-2DADD99050C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,11 +97,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -135,7 +135,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -450,15 +450,15 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.4140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -475,15 +475,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>9.5399999999999991</v>
+      </c>
       <c r="D3">
         <v>8.56</v>
       </c>
@@ -491,10 +494,13 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>8.56</v>
+      </c>
       <c r="D4">
         <v>9.56</v>
       </c>
@@ -502,10 +508,13 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>10.51</v>
+      </c>
       <c r="D5">
         <v>15.44</v>
       </c>
@@ -513,10 +522,13 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6">
+        <v>11.25</v>
+      </c>
       <c r="D6">
         <v>15.77</v>
       </c>
@@ -524,10 +536,13 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="C7">
+        <v>20.78</v>
+      </c>
       <c r="D7">
         <v>21.14</v>
       </c>
@@ -535,10 +550,13 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="C8">
+        <v>39.36</v>
+      </c>
       <c r="D8">
         <v>29.53</v>
       </c>
@@ -546,15 +564,18 @@
         <v>39.79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="C10">
+        <v>12.22</v>
+      </c>
       <c r="D10">
         <v>16.61</v>
       </c>
@@ -562,10 +583,13 @@
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>11.98</v>
+      </c>
       <c r="D11">
         <v>16.440000000000001</v>
       </c>
@@ -573,10 +597,13 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>11.49</v>
+      </c>
       <c r="D12">
         <v>10.91</v>
       </c>
@@ -584,10 +611,13 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="C13">
+        <v>17.600000000000001</v>
+      </c>
       <c r="D13">
         <v>8.7200000000000006</v>
       </c>
@@ -595,10 +625,13 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="C14">
+        <v>18.829999999999998</v>
+      </c>
       <c r="D14">
         <v>11.58</v>
       </c>
@@ -606,10 +639,13 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="C15">
+        <v>19.07</v>
+      </c>
       <c r="D15">
         <v>17.62</v>
       </c>
@@ -617,9 +653,12 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
+      </c>
+      <c r="C16">
+        <v>8.8000000000000007</v>
       </c>
       <c r="D16">
         <v>18.12</v>

--- a/ค่าอุบัตืเหตุ.xlsx
+++ b/ค่าอุบัตืเหตุ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\psit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE96317-8507-44EC-B86A-91F1EFB61EF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5BB497-346C-4301-9026-E94C670C5A40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6915" xr2:uid="{F12A0800-B265-4627-8BC1-2DADD99050C8}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,6 +484,9 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>7.29</v>
+      </c>
       <c r="C3">
         <v>9.5399999999999991</v>
       </c>
@@ -498,6 +501,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>6.94</v>
+      </c>
       <c r="C4">
         <v>8.56</v>
       </c>
@@ -512,6 +518,9 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>11.46</v>
+      </c>
       <c r="C5">
         <v>10.51</v>
       </c>
@@ -526,6 +535,9 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>14.24</v>
+      </c>
       <c r="C6">
         <v>11.25</v>
       </c>
@@ -540,6 +552,9 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>15.97</v>
+      </c>
       <c r="C7">
         <v>20.78</v>
       </c>
@@ -554,6 +569,9 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>44.1</v>
+      </c>
       <c r="C8">
         <v>39.36</v>
       </c>
@@ -573,6 +591,9 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10">
+        <v>11.46</v>
+      </c>
       <c r="C10">
         <v>12.22</v>
       </c>
@@ -587,6 +608,9 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>11.11</v>
+      </c>
       <c r="C11">
         <v>11.98</v>
       </c>
@@ -601,6 +625,9 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>18.75</v>
+      </c>
       <c r="C12">
         <v>11.49</v>
       </c>
@@ -615,6 +642,9 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>21.53</v>
+      </c>
       <c r="C13">
         <v>17.600000000000001</v>
       </c>
@@ -629,6 +659,9 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>20.83</v>
+      </c>
       <c r="C14">
         <v>18.829999999999998</v>
       </c>
@@ -643,6 +676,9 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>11.11</v>
+      </c>
       <c r="C15">
         <v>19.07</v>
       </c>
@@ -656,6 +692,9 @@
     <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
+      </c>
+      <c r="B16">
+        <v>5.21</v>
       </c>
       <c r="C16">
         <v>8.8000000000000007</v>
